--- a/data/PAL_2022_Plankton_Locations.xlsx
+++ b/data/PAL_2022_Plankton_Locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Palau\Research\PNMS Research\PICRC led PNMS Research\Tuna Reproduction\Tuna larvae research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrissy/PalauNationalMarineSanctuary/PNMS_2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B444D7-92D6-4081-A08B-D6016119867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC5AAB0-C592-814F-B9E3-1C007EA0F763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plankton Master" sheetId="4" r:id="rId1"/>
@@ -98,48 +98,24 @@
     <t>N4_2</t>
   </si>
   <si>
-    <t>W1.1</t>
-  </si>
-  <si>
-    <t>W1.2</t>
-  </si>
-  <si>
     <t>PAL22_WA_1_S</t>
   </si>
   <si>
-    <t>WA.1</t>
-  </si>
-  <si>
     <t>PAL22_WA_2_S</t>
   </si>
   <si>
-    <t>WA.2</t>
-  </si>
-  <si>
     <t>PAL_W3_1_S</t>
   </si>
   <si>
-    <t>W3.1</t>
-  </si>
-  <si>
     <t>PAL22_W4_1_S</t>
   </si>
   <si>
-    <t>W4.1</t>
-  </si>
-  <si>
     <t>PAL22_W4_2_S</t>
   </si>
   <si>
-    <t>W4.2</t>
-  </si>
-  <si>
     <t>PAL22_W4_3_S</t>
   </si>
   <si>
-    <t>W4.3</t>
-  </si>
-  <si>
     <t>PAL22_W4_1_D</t>
   </si>
   <si>
@@ -155,18 +131,9 @@
     <t>PAL22_S2_2_S</t>
   </si>
   <si>
-    <t>S2.1</t>
-  </si>
-  <si>
-    <t>S2.2</t>
-  </si>
-  <si>
     <t>PAL22_S2_3_S</t>
   </si>
   <si>
-    <t>S2.3</t>
-  </si>
-  <si>
     <t>PAL22_S2_1_D</t>
   </si>
   <si>
@@ -182,18 +149,9 @@
     <t>PAL22_S3_2_S</t>
   </si>
   <si>
-    <t>S3.1</t>
-  </si>
-  <si>
-    <t>S3.2</t>
-  </si>
-  <si>
     <t>PAL22_S3_3_S</t>
   </si>
   <si>
-    <t>S3.3</t>
-  </si>
-  <si>
     <t>PAL22_S3_1_D</t>
   </si>
   <si>
@@ -209,18 +167,9 @@
     <t>PAL22_S4_2_S</t>
   </si>
   <si>
-    <t>S4.1</t>
-  </si>
-  <si>
-    <t>S4.2</t>
-  </si>
-  <si>
     <t>PAL22_S4_3_S</t>
   </si>
   <si>
-    <t>S4.3</t>
-  </si>
-  <si>
     <t>PAL22_S4_1_D</t>
   </si>
   <si>
@@ -239,15 +188,6 @@
     <t>PAL22_S1_3_S</t>
   </si>
   <si>
-    <t>S1.1</t>
-  </si>
-  <si>
-    <t>S1.2</t>
-  </si>
-  <si>
-    <t>S1.3</t>
-  </si>
-  <si>
     <t>PAL22_S1_1_D</t>
   </si>
   <si>
@@ -330,6 +270,66 @@
   </si>
   <si>
     <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>W1_1</t>
+  </si>
+  <si>
+    <t>W1_2</t>
+  </si>
+  <si>
+    <t>WA_1</t>
+  </si>
+  <si>
+    <t>WA_2</t>
+  </si>
+  <si>
+    <t>W3_1</t>
+  </si>
+  <si>
+    <t>W4_1</t>
+  </si>
+  <si>
+    <t>W4_2</t>
+  </si>
+  <si>
+    <t>W4_3</t>
+  </si>
+  <si>
+    <t>S2_1</t>
+  </si>
+  <si>
+    <t>S2_2</t>
+  </si>
+  <si>
+    <t>S2_3</t>
+  </si>
+  <si>
+    <t>S3_1</t>
+  </si>
+  <si>
+    <t>S3_2</t>
+  </si>
+  <si>
+    <t>S3_3</t>
+  </si>
+  <si>
+    <t>S4_1</t>
+  </si>
+  <si>
+    <t>S4_2</t>
+  </si>
+  <si>
+    <t>S4_3</t>
+  </si>
+  <si>
+    <t>S1_1</t>
+  </si>
+  <si>
+    <t>S1_2</t>
+  </si>
+  <si>
+    <t>S1_3</t>
   </si>
 </sst>
 </file>
@@ -623,31 +623,31 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
-    <col min="8" max="12" width="7.59765625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="12.59765625" style="1"/>
+    <col min="8" max="12" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -656,13 +656,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -676,14 +676,14 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -697,14 +697,14 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -718,14 +718,14 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -739,16 +739,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3">
         <v>2172.1999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -762,16 +762,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G6" s="3">
         <v>2128.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -785,18 +785,18 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G7" s="3">
         <v>3133.7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>9.1071899999999992</v>
@@ -808,16 +808,16 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3">
         <v>9.1426200000000009</v>
@@ -829,16 +829,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3">
         <v>9.1218900000000005</v>
@@ -850,14 +850,14 @@
         <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -871,16 +871,16 @@
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G11" s="3">
         <v>4304.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -894,16 +894,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G12" s="3">
         <v>6780.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -917,18 +917,18 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G13" s="3">
         <v>4932.3999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3">
         <v>9.2350700000000003</v>
@@ -940,16 +940,16 @@
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>9.2553699999999992</v>
@@ -961,16 +961,16 @@
         <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3">
         <v>7.55131</v>
@@ -979,19 +979,19 @@
         <v>133.78005999999999</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <v>7.5797400000000001</v>
@@ -1000,19 +1000,19 @@
         <v>133.79086000000001</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3">
         <v>8.2001200000000001</v>
@@ -1021,19 +1021,19 @@
         <v>134.13246000000001</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3">
         <v>8.1966900000000003</v>
@@ -1042,19 +1042,19 @@
         <v>134.17094</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3">
         <v>7.6896100000000001</v>
@@ -1063,19 +1063,19 @@
         <v>133.15118000000001</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3">
         <v>7.1014200000000001</v>
@@ -1084,19 +1084,19 @@
         <v>133.47751</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3">
         <v>7.1259699999999997</v>
@@ -1105,19 +1105,19 @@
         <v>133.47095999999999</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>7.18283</v>
@@ -1126,19 +1126,19 @@
         <v>133.48685</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3">
         <v>7.2420600000000004</v>
@@ -1147,21 +1147,21 @@
         <v>133.49634</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G24" s="3">
         <v>6214.4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>7.2491500000000002</v>
@@ -1170,21 +1170,21 @@
         <v>133.48591999999999</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G25" s="3">
         <v>3725.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
         <v>7.2680199999999999</v>
@@ -1193,21 +1193,21 @@
         <v>133.48561000000001</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G26" s="3">
         <v>6213.1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3">
         <v>6.8023600000000002</v>
@@ -1216,19 +1216,19 @@
         <v>133.27798000000001</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3">
         <v>6.8489000000000004</v>
@@ -1237,19 +1237,19 @@
         <v>133.26102</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3">
         <v>6.8892100000000003</v>
@@ -1258,19 +1258,19 @@
         <v>133.29517000000001</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3">
         <v>7.02027</v>
@@ -1279,21 +1279,21 @@
         <v>133.29114999999999</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G30" s="3">
         <v>4019.6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3">
         <v>7.0228400000000004</v>
@@ -1302,21 +1302,21 @@
         <v>133.28818000000001</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G31" s="3">
         <v>6165.3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3">
         <v>7.0402399999999998</v>
@@ -1325,21 +1325,21 @@
         <v>133.27396999999999</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G32" s="3">
         <v>6592.6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3">
         <v>6.2870400000000002</v>
@@ -1348,19 +1348,19 @@
         <v>133.51562000000001</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3">
         <v>6.2604199999999999</v>
@@ -1369,19 +1369,19 @@
         <v>133.49364</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3">
         <v>6.30044</v>
@@ -1390,19 +1390,19 @@
         <v>133.47595000000001</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3">
         <v>6.2965799999999996</v>
@@ -1411,21 +1411,21 @@
         <v>133.46429000000001</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G36" s="3">
         <v>3996.4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3">
         <v>6.2865000000000002</v>
@@ -1434,21 +1434,21 @@
         <v>133.45139</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G37" s="3">
         <v>3733.8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3">
         <v>6.2877200000000002</v>
@@ -1457,21 +1457,21 @@
         <v>133.46303</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G38" s="3">
         <v>4398.3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3">
         <v>6.0585399999999998</v>
@@ -1480,19 +1480,19 @@
         <v>134.17393000000001</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3">
         <v>6.0259600000000004</v>
@@ -1501,19 +1501,19 @@
         <v>134.16140999999999</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3">
         <v>6.0250399999999997</v>
@@ -1522,19 +1522,19 @@
         <v>134.13046</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3">
         <v>6.0366900000000001</v>
@@ -1543,21 +1543,21 @@
         <v>134.17348000000001</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G42" s="3">
         <v>7226.3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3">
         <v>6.0411799999999998</v>
@@ -1566,21 +1566,21 @@
         <v>134.15884</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G43" s="3">
         <v>6607.6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3">
         <v>6.0214999999999996</v>
@@ -1589,21 +1589,21 @@
         <v>134.14894000000001</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G44" s="3">
         <v>7886.2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B45" s="3">
         <v>6.4839799999999999</v>
@@ -1612,19 +1612,19 @@
         <v>133.80314999999999</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B46" s="3">
         <v>6.4708600000000001</v>
@@ -1633,19 +1633,19 @@
         <v>133.75189</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B47" s="3">
         <v>6.4788199999999998</v>
@@ -1654,19 +1654,19 @@
         <v>133.71042</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3">
         <v>6.4733000000000001</v>
@@ -1675,21 +1675,21 @@
         <v>133.82266000000001</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G48" s="3">
         <v>4238.8999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3">
         <v>6.4813200000000002</v>
@@ -1698,21 +1698,21 @@
         <v>133.82037</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G49" s="3">
         <v>6145.8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B50" s="3">
         <v>6.46814</v>
@@ -1721,13 +1721,13 @@
         <v>133.80705</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G50" s="3">
         <v>4606</v>
